--- a/docs/templates/ss_dataschema - template.xlsx
+++ b/docs/templates/ss_dataschema - template.xlsx
@@ -428,7 +428,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>STUDY_1 %&gt;% mutate( adm_unique_id = part_id) %&gt;% select(1,adm_unique_id)</t>
+          <t>`STUDY_1` %&gt;% select('adm_unique_id' = 'part_id')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -470,7 +470,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>STUDY_1 %&gt;% mutate( adm_study = 'study_1') %&gt;% select(1,adm_study)</t>
+          <t>`STUDY_1` %&gt;% mutate( 'adm_study' = 'study_1' ) %&gt;% select('adm_unique_id' = 'part_id','adm_study')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">

--- a/docs/templates/ss_dataschema - template.xlsx
+++ b/docs/templates/ss_dataschema - template.xlsx
@@ -438,7 +438,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>identical</t>
+          <t>unknown</t>
         </is>
       </c>
     </row>

--- a/docs/templates/ss_dataschema - template.xlsx
+++ b/docs/templates/ss_dataschema - template.xlsx
@@ -423,7 +423,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>part_id</t>
+          <t>id_creation</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
